--- a/test/HWDBUploader/SystemTest/Upload_SN.xlsx
+++ b/test/HWDBUploader/SystemTest/Upload_SN.xlsx
@@ -479,7 +479,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06B6DAE4-95B8-43A2-A4A0-B6E4226A6988</t>
+          <t>779D81F6-D578-4E22-AAAE-D6118CD9920F</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -490,17 +490,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Strawberry</t>
+          <t>Lemon</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D74EC617-4DE4-4D40-8D52-6EC1B5535117</t>
+          <t>D6FF78FE-753E-46A3-8B86-579FA87BB360</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -519,17 +519,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Blueberry</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E3DD067A-A9E9-462C-9F71-D87B499C3A52</t>
+          <t>4E0191E4-A89D-4108-A1B0-5FF0BF2DE6D2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -548,17 +548,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Vanilla</t>
+          <t>Raspberry</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D4AF694F-7BF8-4B5C-B461-4FDD896E6172</t>
+          <t>5E81D482-0EAE-4373-8B0E-48F5533D62C3</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -577,17 +577,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Raspberry</t>
+          <t>Grape</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06B6DAE4-95B8-43A2-A4A0-B6E4226A6988</t>
+          <t>779D81F6-D578-4E22-AAAE-D6118CD9920F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>../images/broccoli.jpeg</t>
+          <t>../images/raccoon.jpeg</t>
         </is>
       </c>
     </row>
@@ -654,17 +654,17 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D74EC617-4DE4-4D40-8D52-6EC1B5535117</t>
+          <t>D6FF78FE-753E-46A3-8B86-579FA87BB360</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>../images/dice.jpeg</t>
+          <t>../images/runningdog.jpeg</t>
         </is>
       </c>
     </row>
@@ -672,17 +672,17 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E3DD067A-A9E9-462C-9F71-D87B499C3A52</t>
+          <t>4E0191E4-A89D-4108-A1B0-5FF0BF2DE6D2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>../images/lightbulb.jpeg</t>
+          <t>../iamges/apple.jpeg</t>
         </is>
       </c>
     </row>
@@ -690,17 +690,17 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D4AF694F-7BF8-4B5C-B461-4FDD896E6172</t>
+          <t>5E81D482-0EAE-4373-8B0E-48F5533D62C3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>../iamges/apple.jpeg</t>
+          <t>../images/broccoli.jpeg</t>
         </is>
       </c>
     </row>
@@ -754,16 +754,16 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06B6DAE4-95B8-43A2-A4A0-B6E4226A6988</t>
+          <t>779D81F6-D578-4E22-AAAE-D6118CD9920F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -775,20 +775,20 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D74EC617-4DE4-4D40-8D52-6EC1B5535117</t>
+          <t>D6FF78FE-753E-46A3-8B86-579FA87BB360</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -796,16 +796,16 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E3DD067A-A9E9-462C-9F71-D87B499C3A52</t>
+          <t>4E0191E4-A89D-4108-A1B0-5FF0BF2DE6D2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D4AF694F-7BF8-4B5C-B461-4FDD896E6172</t>
+          <t>5E81D482-0EAE-4373-8B0E-48F5533D62C3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -879,17 +879,17 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06B6DAE4-95B8-43A2-A4A0-B6E4226A6988</t>
+          <t>779D81F6-D578-4E22-AAAE-D6118CD9920F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>../images/runningdog.jpeg</t>
+          <t>../images/dice.jpeg</t>
         </is>
       </c>
     </row>
@@ -897,17 +897,17 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D74EC617-4DE4-4D40-8D52-6EC1B5535117</t>
+          <t>D6FF78FE-753E-46A3-8B86-579FA87BB360</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>../images/broccoli.jpeg</t>
+          <t>../images/runningdog.jpeg</t>
         </is>
       </c>
     </row>
@@ -915,17 +915,17 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E3DD067A-A9E9-462C-9F71-D87B499C3A52</t>
+          <t>4E0191E4-A89D-4108-A1B0-5FF0BF2DE6D2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>../images/raccoon.jpeg</t>
+          <t>../images/dice.jpeg</t>
         </is>
       </c>
     </row>
@@ -933,17 +933,17 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D4AF694F-7BF8-4B5C-B461-4FDD896E6172</t>
+          <t>5E81D482-0EAE-4373-8B0E-48F5533D62C3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>../images/runningdog.jpeg</t>
+          <t>../iamges/apple.jpeg</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4B20E666-3EFC-4A68-958A-4E57F43D3F01</t>
+          <t>4644A72F-3224-440D-8657-1825AAC2440C</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1033,26 +1033,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>90.41</v>
+        <v>86.28</v>
       </c>
       <c r="G2" t="n">
-        <v>81.44</v>
+        <v>105.02</v>
       </c>
       <c r="H2" t="n">
-        <v>91.97</v>
+        <v>115.67</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>06B6DAE4-95B8-43A2-A4A0-B6E4226A6988</t>
+          <t>779D81F6-D578-4E22-AAAE-D6118CD9920F</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>D74EC617-4DE4-4D40-8D52-6EC1B5535117</t>
+          <t>D6FF78FE-753E-46A3-8B86-579FA87BB360</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>729F9753-4C53-4F0B-9C9E-011F5145999F</t>
+          <t>6A713058-863E-45C4-B05B-CF5671E33F0C</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1071,26 +1071,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>114.09</v>
+        <v>110.77</v>
       </c>
       <c r="G3" t="n">
-        <v>105.19</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>91.2</v>
+        <v>116.18</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>E3DD067A-A9E9-462C-9F71-D87B499C3A52</t>
+          <t>4E0191E4-A89D-4108-A1B0-5FF0BF2DE6D2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>D4AF694F-7BF8-4B5C-B461-4FDD896E6172</t>
+          <t>5E81D482-0EAE-4373-8B0E-48F5533D62C3</t>
         </is>
       </c>
     </row>
@@ -1149,16 +1149,16 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4B20E666-3EFC-4A68-958A-4E57F43D3F01</t>
+          <t>4644A72F-3224-440D-8657-1825AAC2440C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1175,16 +1175,16 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>729F9753-4C53-4F0B-9C9E-011F5145999F</t>
+          <t>6A713058-863E-45C4-B05B-CF5671E33F0C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>generated 2023-10-12 07:15:42</t>
+          <t>generated 2023-10-12 09:12:50</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
